--- a/_ref/power_consuming.xlsx
+++ b/_ref/power_consuming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Hour</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,10 @@
   </si>
   <si>
     <t>mAH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angrybird</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -80,11 +84,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -131,133 +138,133 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>0.60277777777777786</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63263888888888886</c:v>
+                  <c:v>2.9861111111111005E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63680555555555551</c:v>
+                  <c:v>3.4027777777777657E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64027777777777772</c:v>
+                  <c:v>3.7499999999999867E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6479166666666667</c:v>
+                  <c:v>4.513888888888884E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65416666666666667</c:v>
+                  <c:v>5.1388888888888817E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65902777777777777</c:v>
+                  <c:v>5.6249999999999911E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66249999999999998</c:v>
+                  <c:v>5.9722222222222121E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66527777777777775</c:v>
+                  <c:v>6.2499999999999889E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6694444444444444</c:v>
+                  <c:v>6.6666666666666541E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67361111111111105</c:v>
+                  <c:v>7.0833333333333193E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.67638888888888882</c:v>
+                  <c:v>7.3611111111110961E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.67847222222222214</c:v>
+                  <c:v>7.5694444444444287E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.68124999999999991</c:v>
+                  <c:v>7.8472222222222054E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.68541666666666667</c:v>
+                  <c:v>8.2638888888888817E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68958333333333333</c:v>
+                  <c:v>8.6805555555555469E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7006944444444444</c:v>
+                  <c:v>9.7916666666666541E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.70902777777777781</c:v>
+                  <c:v>0.10624999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.71875</c:v>
+                  <c:v>0.11597222222222214</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.72708333333333341</c:v>
+                  <c:v>0.12430555555555556</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.7368055555555556</c:v>
+                  <c:v>0.13402777777777775</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.74513888888888891</c:v>
+                  <c:v>0.14236111111111105</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.75</c:v>
+                  <c:v>0.14722222222222214</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.76111111111111107</c:v>
+                  <c:v>0.15833333333333321</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.76944444444444449</c:v>
+                  <c:v>0.16666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.77708333333333335</c:v>
+                  <c:v>0.17430555555555549</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.78125</c:v>
+                  <c:v>0.17847222222222214</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.78819444444444442</c:v>
+                  <c:v>0.18541666666666656</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.79652777777777772</c:v>
+                  <c:v>0.19374999999999987</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.79999999999999993</c:v>
+                  <c:v>0.19722222222222208</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.81874999999999998</c:v>
+                  <c:v>0.21597222222222212</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.84861111111111109</c:v>
+                  <c:v>0.24583333333333324</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.8534722222222223</c:v>
+                  <c:v>0.25069444444444444</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.87916666666666665</c:v>
+                  <c:v>0.2763888888888888</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.88749999999999996</c:v>
+                  <c:v>0.2847222222222221</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.89027777777777772</c:v>
+                  <c:v>0.28749999999999987</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.89236111111111116</c:v>
+                  <c:v>0.2895833333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.89652777777777781</c:v>
+                  <c:v>0.29374999999999996</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.90555555555555556</c:v>
+                  <c:v>0.3027777777777777</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.9145833333333333</c:v>
+                  <c:v>0.31180555555555545</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.92361111111111105</c:v>
+                  <c:v>0.32083333333333319</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.93194444444444435</c:v>
+                  <c:v>0.3291666666666665</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.94027777777777777</c:v>
+                  <c:v>0.33749999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,7 +427,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="1"/>
+        <c:numFmt formatCode="hh:mm;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -432,6 +439,7 @@
         <c:axId val="109092224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -441,6 +449,440 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="109090688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-HK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表2!$J$2:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9583333333333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9166666666666663E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1472222222222222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17638888888888893</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23055555555555551</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41944444444444445</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42083333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42638888888888887</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4284722222222222</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43124999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表2!$K$2:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表2!$R$2:$R$38</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.388888888888884E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0833333333333259E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1666666666666519E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8611111111110938E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2499999999999778E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3333333333334147E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7222222222222987E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0416666666666741E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3194444444444509E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3888888888888951E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5277777777777835E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6666666666666718E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8055555555555602E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0138888888888928E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.083333333333337E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2916666666666696E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4305555555555691E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6388888888889017E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7777777777777901E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9166666666666785E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.0555555555555669E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2638888888888995E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4027777777777879E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4722222222222321E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6805555555555647E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.8194444444444531E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9583333333333415E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.0972222222222299E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.1666666666666741E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.3750000000000067E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.4444444444444509E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.5833333333333393E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.6527777777777835E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.7916666666666718E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0000000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.1388888888888928E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表2!$S$2:$S$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="80847232"/>
+        <c:axId val="80185984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80847232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7.3000000000000009E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80185984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="80185984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80847232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -466,20 +908,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>294032</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294033</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>24313</xdr:rowOff>
+      <xdr:rowOff>24314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>538370</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>181033</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>563217</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>432226</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>27614</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>49471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -784,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -795,21 +1272,25 @@
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1">
+        <f>A2/24+B2/24/60</f>
+        <v>0.60277777777777786</v>
+      </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>14</v>
       </c>
@@ -817,17 +1298,25 @@
         <v>28</v>
       </c>
       <c r="C2" s="1">
-        <f>A2/24+B2/24/60</f>
-        <v>0.60277777777777786</v>
+        <f>A2/24+B2/24/60-$C$1</f>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>98</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>299</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>D3-D26</f>
+        <v>56</v>
+      </c>
+      <c r="K2" s="2">
+        <f>I2/I3/24</f>
+        <v>17.055837563451767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
@@ -835,17 +1324,21 @@
         <v>11</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C44" si="0">A3/24+B3/24/60</f>
-        <v>0.63263888888888886</v>
+        <f t="shared" ref="C3:C44" si="0">A3/24+B3/24/60-$C$1</f>
+        <v>2.9861111111111005E-2</v>
       </c>
       <c r="D3">
         <v>96</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>258</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <f>C26-C3</f>
+        <v>0.13680555555555562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
@@ -854,16 +1347,16 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.63680555555555551</v>
+        <v>3.4027777777777657E-2</v>
       </c>
       <c r="D4">
         <v>95</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -872,16 +1365,16 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.64027777777777772</v>
+        <v>3.7499999999999867E-2</v>
       </c>
       <c r="D5">
         <v>94</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -890,16 +1383,16 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.6479166666666667</v>
+        <v>4.513888888888884E-2</v>
       </c>
       <c r="D6">
         <v>92</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -908,16 +1401,16 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.65416666666666667</v>
+        <v>5.1388888888888817E-2</v>
       </c>
       <c r="D7">
         <v>89</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -926,16 +1419,16 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.65902777777777777</v>
+        <v>5.6249999999999911E-2</v>
       </c>
       <c r="D8">
         <v>87</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
@@ -944,16 +1437,16 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.66249999999999998</v>
+        <v>5.9722222222222121E-2</v>
       </c>
       <c r="D9">
         <v>85</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -962,16 +1455,16 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.66527777777777775</v>
+        <v>6.2499999999999889E-2</v>
       </c>
       <c r="D10">
         <v>83</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
@@ -980,16 +1473,16 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.6694444444444444</v>
+        <v>6.6666666666666541E-2</v>
       </c>
       <c r="D11">
         <v>81</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -998,16 +1491,16 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0.67361111111111105</v>
+        <v>7.0833333333333193E-2</v>
       </c>
       <c r="D12">
         <v>77</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>433</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16</v>
       </c>
@@ -1016,16 +1509,16 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>0.67638888888888882</v>
+        <v>7.3611111111110961E-2</v>
       </c>
       <c r="D13">
         <v>75</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16</v>
       </c>
@@ -1034,16 +1527,16 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>0.67847222222222214</v>
+        <v>7.5694444444444287E-2</v>
       </c>
       <c r="D14">
         <v>73</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>442</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
@@ -1052,16 +1545,16 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>0.68124999999999991</v>
+        <v>7.8472222222222054E-2</v>
       </c>
       <c r="D15">
         <v>71</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1070,16 +1563,16 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>0.68541666666666667</v>
+        <v>8.2638888888888817E-2</v>
       </c>
       <c r="D16">
         <v>68</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>485</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1088,16 +1581,16 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>0.68958333333333333</v>
+        <v>8.6805555555555469E-2</v>
       </c>
       <c r="D17">
         <v>64</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>440</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1106,16 +1599,16 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>0.7006944444444444</v>
+        <v>9.7916666666666541E-2</v>
       </c>
       <c r="D18">
         <v>60</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1124,16 +1617,16 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>0.70902777777777781</v>
+        <v>0.10624999999999996</v>
       </c>
       <c r="D19">
         <v>58</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1142,16 +1635,16 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>0.71875</v>
+        <v>0.11597222222222214</v>
       </c>
       <c r="D20">
         <v>56</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1160,16 +1653,16 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>0.72708333333333341</v>
+        <v>0.12430555555555556</v>
       </c>
       <c r="D21">
         <v>54</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -1178,16 +1671,16 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>0.7368055555555556</v>
+        <v>0.13402777777777775</v>
       </c>
       <c r="D22">
         <v>52</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -1196,16 +1689,16 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>0.74513888888888891</v>
+        <v>0.14236111111111105</v>
       </c>
       <c r="D23">
         <v>49</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -1214,16 +1707,16 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.14722222222222214</v>
       </c>
       <c r="D24">
         <v>46</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18</v>
       </c>
@@ -1232,16 +1725,16 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>0.76111111111111107</v>
+        <v>0.15833333333333321</v>
       </c>
       <c r="D25">
         <v>43</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -1250,16 +1743,16 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>0.76944444444444449</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="D26">
         <v>40</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18</v>
       </c>
@@ -1268,16 +1761,16 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>0.77708333333333335</v>
+        <v>0.17430555555555549</v>
       </c>
       <c r="D27">
         <v>37</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18</v>
       </c>
@@ -1286,16 +1779,16 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>0.78125</v>
+        <v>0.17847222222222214</v>
       </c>
       <c r="D28">
         <v>35</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18</v>
       </c>
@@ -1304,16 +1797,16 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>0.78819444444444442</v>
+        <v>0.18541666666666656</v>
       </c>
       <c r="D29">
         <v>33</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19</v>
       </c>
@@ -1322,16 +1815,16 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>0.79652777777777772</v>
+        <v>0.19374999999999987</v>
       </c>
       <c r="D30">
         <v>31</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>19</v>
       </c>
@@ -1340,16 +1833,16 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>0.79999999999999993</v>
+        <v>0.19722222222222208</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>19</v>
       </c>
@@ -1358,16 +1851,16 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
-        <v>0.81874999999999998</v>
+        <v>0.21597222222222212</v>
       </c>
       <c r="D32">
         <v>29</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20</v>
       </c>
@@ -1376,16 +1869,16 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
-        <v>0.84861111111111109</v>
+        <v>0.24583333333333324</v>
       </c>
       <c r="D33">
         <v>28</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
@@ -1394,16 +1887,16 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="0"/>
-        <v>0.8534722222222223</v>
+        <v>0.25069444444444444</v>
       </c>
       <c r="D34">
         <v>27</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>21</v>
       </c>
@@ -1412,16 +1905,20 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" si="0"/>
-        <v>0.87916666666666665</v>
+        <v>0.2763888888888888</v>
       </c>
       <c r="D35">
         <v>26</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>161</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I35" s="2">
+        <f>5/(C36-C31)/24</f>
+        <v>2.3809523809523805</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>21</v>
       </c>
@@ -1430,16 +1927,16 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" si="0"/>
-        <v>0.88749999999999996</v>
+        <v>0.2847222222222221</v>
       </c>
       <c r="D36">
         <v>25</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>21</v>
       </c>
@@ -1448,16 +1945,16 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" si="0"/>
-        <v>0.89027777777777772</v>
+        <v>0.28749999999999987</v>
       </c>
       <c r="D37">
         <v>24</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>21</v>
       </c>
@@ -1466,16 +1963,16 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" si="0"/>
-        <v>0.89236111111111116</v>
+        <v>0.2895833333333333</v>
       </c>
       <c r="D38">
         <v>23</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>21</v>
       </c>
@@ -1484,16 +1981,16 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" si="0"/>
-        <v>0.89652777777777781</v>
+        <v>0.29374999999999996</v>
       </c>
       <c r="D39">
         <v>22</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>21</v>
       </c>
@@ -1502,16 +1999,16 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="0"/>
-        <v>0.90555555555555556</v>
+        <v>0.3027777777777777</v>
       </c>
       <c r="D40">
         <v>20</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>21</v>
       </c>
@@ -1520,16 +2017,16 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="0"/>
-        <v>0.9145833333333333</v>
+        <v>0.31180555555555545</v>
       </c>
       <c r="D41">
         <v>18</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>22</v>
       </c>
@@ -1538,16 +2035,16 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="0"/>
-        <v>0.92361111111111105</v>
+        <v>0.32083333333333319</v>
       </c>
       <c r="D42">
         <v>16</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>22</v>
       </c>
@@ -1556,16 +2053,16 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" si="0"/>
-        <v>0.93194444444444435</v>
+        <v>0.3291666666666665</v>
       </c>
       <c r="D43">
         <v>14</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>22</v>
       </c>
@@ -1574,12 +2071,12 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="0"/>
-        <v>0.94027777777777777</v>
+        <v>0.33749999999999991</v>
       </c>
       <c r="D44">
         <v>12</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>115</v>
       </c>
     </row>
@@ -1593,15 +2090,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1615,8 +2112,16 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J1">
+        <f>H2/24+I2/24/60</f>
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="R1">
+        <f>P2/24+Q2/24/60</f>
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1633,8 +2138,34 @@
       <c r="E2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1">
+        <f>H2/24+I2/24/60-$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>93</v>
+      </c>
+      <c r="P2">
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1">
+        <f>P2/24+Q2/24/60-$R$1</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1651,8 +2182,34 @@
       <c r="E3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J16" si="1">H3/24+I3/24/60-$J$1</f>
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="K3">
+        <v>92</v>
+      </c>
+      <c r="P3">
+        <v>13</v>
+      </c>
+      <c r="Q3">
+        <v>50</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R38" si="2">P3/24+Q3/24/60-$R$1</f>
+        <v>1.388888888888884E-3</v>
+      </c>
+      <c r="S3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1669,8 +2226,34 @@
       <c r="E4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="K4">
+        <v>91</v>
+      </c>
+      <c r="P4">
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>51</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0833333333333259E-3</v>
+      </c>
+      <c r="S4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1687,8 +2270,34 @@
       <c r="E5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>54</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1472222222222222</v>
+      </c>
+      <c r="K5">
+        <v>90</v>
+      </c>
+      <c r="P5">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <v>54</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666519E-3</v>
+      </c>
+      <c r="S5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1705,8 +2314,34 @@
       <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17638888888888893</v>
+      </c>
+      <c r="K6">
+        <v>89</v>
+      </c>
+      <c r="P6">
+        <v>13</v>
+      </c>
+      <c r="Q6">
+        <v>55</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="S6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1723,8 +2358,34 @@
       <c r="E7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>54</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23055555555555551</v>
+      </c>
+      <c r="K7">
+        <v>88</v>
+      </c>
+      <c r="P7">
+        <v>13</v>
+      </c>
+      <c r="Q7">
+        <v>57</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="2"/>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="S7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -1741,8 +2402,34 @@
       <c r="E8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27916666666666667</v>
+      </c>
+      <c r="K8">
+        <v>87</v>
+      </c>
+      <c r="P8">
+        <v>14</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="2"/>
+        <v>8.3333333333334147E-3</v>
+      </c>
+      <c r="S8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1759,8 +2446,34 @@
       <c r="E9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="K9">
+        <v>86</v>
+      </c>
+      <c r="P9">
+        <v>14</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7222222222222987E-3</v>
+      </c>
+      <c r="S9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -1777,8 +2490,34 @@
       <c r="E10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="K10">
+        <v>85</v>
+      </c>
+      <c r="P10">
+        <v>14</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="S10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -1795,8 +2534,34 @@
       <c r="E11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>58</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="K11">
+        <v>84</v>
+      </c>
+      <c r="P11">
+        <v>14</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3194444444444509E-2</v>
+      </c>
+      <c r="S11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -1813,8 +2578,34 @@
       <c r="E12">
         <v>333</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>26</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="K12">
+        <v>84</v>
+      </c>
+      <c r="P12">
+        <v>14</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="S12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1831,8 +2622,34 @@
       <c r="E13">
         <v>166</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="K13">
+        <v>83</v>
+      </c>
+      <c r="P13">
+        <v>14</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+      <c r="S13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1849,8 +2666,34 @@
       <c r="E14">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>36</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="K14">
+        <v>82</v>
+      </c>
+      <c r="P14">
+        <v>14</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666718E-2</v>
+      </c>
+      <c r="S14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1867,8 +2710,34 @@
       <c r="E15">
         <v>341</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>39</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="K15">
+        <v>81</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <v>14</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8055555555555602E-2</v>
+      </c>
+      <c r="S15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1885,8 +2754,34 @@
       <c r="E16">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>43</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="K16">
+        <v>80</v>
+      </c>
+      <c r="P16">
+        <v>14</v>
+      </c>
+      <c r="Q16">
+        <v>17</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0138888888888928E-2</v>
+      </c>
+      <c r="S16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1903,8 +2798,24 @@
       <c r="E17">
         <v>381</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>14</v>
+      </c>
+      <c r="Q17">
+        <v>18</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="2"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="S17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -1921,8 +2832,21 @@
       <c r="E18">
         <v>470</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>14</v>
+      </c>
+      <c r="Q18">
+        <v>21</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2916666666666696E-2</v>
+      </c>
+      <c r="S18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -1939,8 +2863,21 @@
       <c r="E19">
         <v>527</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>14</v>
+      </c>
+      <c r="Q19">
+        <v>23</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4305555555555691E-2</v>
+      </c>
+      <c r="S19">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1957,8 +2894,21 @@
       <c r="E20">
         <v>416</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>14</v>
+      </c>
+      <c r="Q20">
+        <v>26</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6388888888889017E-2</v>
+      </c>
+      <c r="S20">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -1975,8 +2925,21 @@
       <c r="E21">
         <v>420</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>14</v>
+      </c>
+      <c r="Q21">
+        <v>28</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777901E-2</v>
+      </c>
+      <c r="S21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -1993,8 +2956,25 @@
       <c r="E22">
         <v>351</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H22" s="2">
+        <f>(D2-D10)/(C10-C2)/24</f>
+        <v>0.91954022988505757</v>
+      </c>
+      <c r="P22">
+        <v>14</v>
+      </c>
+      <c r="Q22">
+        <v>30</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9166666666666785E-2</v>
+      </c>
+      <c r="S22">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
@@ -2011,8 +2991,21 @@
       <c r="E23">
         <v>347</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>14</v>
+      </c>
+      <c r="Q23">
+        <v>32</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0555555555555669E-2</v>
+      </c>
+      <c r="S23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -2029,8 +3022,21 @@
       <c r="E24">
         <v>514</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>14</v>
+      </c>
+      <c r="Q24">
+        <v>35</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2638888888888995E-2</v>
+      </c>
+      <c r="S24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>14</v>
       </c>
@@ -2047,8 +3053,21 @@
       <c r="E25">
         <v>421</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>14</v>
+      </c>
+      <c r="Q25">
+        <v>37</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4027777777777879E-2</v>
+      </c>
+      <c r="S25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2065,8 +3084,21 @@
       <c r="E26">
         <v>479</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>14</v>
+      </c>
+      <c r="Q26">
+        <v>38</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4722222222222321E-2</v>
+      </c>
+      <c r="S26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>14</v>
       </c>
@@ -2083,8 +3115,21 @@
       <c r="E27">
         <v>420</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>14</v>
+      </c>
+      <c r="Q27">
+        <v>41</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6805555555555647E-2</v>
+      </c>
+      <c r="S27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14</v>
       </c>
@@ -2101,8 +3146,25 @@
       <c r="E28">
         <v>357</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J28" s="2">
+        <f>(D18-D50)/(C50-C18)/24</f>
+        <v>29.538461538461501</v>
+      </c>
+      <c r="P28">
+        <v>14</v>
+      </c>
+      <c r="Q28">
+        <v>43</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8194444444444531E-2</v>
+      </c>
+      <c r="S28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14</v>
       </c>
@@ -2119,8 +3181,21 @@
       <c r="E29">
         <v>355</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>14</v>
+      </c>
+      <c r="Q29">
+        <v>45</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="2"/>
+        <v>3.9583333333333415E-2</v>
+      </c>
+      <c r="S29">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
@@ -2137,8 +3212,21 @@
       <c r="E30">
         <v>424</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>14</v>
+      </c>
+      <c r="Q30">
+        <v>47</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="2"/>
+        <v>4.0972222222222299E-2</v>
+      </c>
+      <c r="S30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2155,8 +3243,21 @@
       <c r="E31">
         <v>360</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>14</v>
+      </c>
+      <c r="Q31">
+        <v>48</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="S31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
@@ -2173,8 +3274,21 @@
       <c r="E32">
         <v>355</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>14</v>
+      </c>
+      <c r="Q32">
+        <v>51</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="2"/>
+        <v>4.3750000000000067E-2</v>
+      </c>
+      <c r="S32">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
@@ -2191,8 +3305,21 @@
       <c r="E33">
         <v>354</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>14</v>
+      </c>
+      <c r="Q33">
+        <v>52</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4444444444444509E-2</v>
+      </c>
+      <c r="S33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14</v>
       </c>
@@ -2209,8 +3336,21 @@
       <c r="E34">
         <v>432</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>14</v>
+      </c>
+      <c r="Q34">
+        <v>54</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5833333333333393E-2</v>
+      </c>
+      <c r="S34">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14</v>
       </c>
@@ -2227,8 +3367,21 @@
       <c r="E35">
         <v>356</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>14</v>
+      </c>
+      <c r="Q35">
+        <v>55</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="2"/>
+        <v>4.6527777777777835E-2</v>
+      </c>
+      <c r="S35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>14</v>
       </c>
@@ -2245,8 +3398,21 @@
       <c r="E36">
         <v>353</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>14</v>
+      </c>
+      <c r="Q36">
+        <v>57</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7916666666666718E-2</v>
+      </c>
+      <c r="S36">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14</v>
       </c>
@@ -2263,8 +3429,21 @@
       <c r="E37">
         <v>355</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <v>15</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="S37">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>14</v>
       </c>
@@ -2281,8 +3460,21 @@
       <c r="E38">
         <v>357</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>15</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1388888888888928E-2</v>
+      </c>
+      <c r="S38">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14</v>
       </c>
@@ -2300,7 +3492,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2318,7 +3510,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2336,7 +3528,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2354,7 +3546,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2372,7 +3564,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>14</v>
       </c>
@@ -2390,7 +3582,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>14</v>
       </c>
@@ -2408,7 +3600,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>14</v>
       </c>
@@ -2426,7 +3618,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14</v>
       </c>
@@ -2444,7 +3636,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>14</v>
       </c>
@@ -2555,6 +3747,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
